--- a/medicine/Sexualité et sexologie/Les_Petits_Ballons/Les_Petits_Ballons.xlsx
+++ b/medicine/Sexualité et sexologie/Les_Petits_Ballons/Les_Petits_Ballons.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Petits Ballons est une chanson écrite par Serge Gainsbourg et composée par Jean-Claude Vannier, interprétée par France Gall en 1972. 
 La chanson traite de pratique sexuelle et d'érotisme.
@@ -512,17 +524,19 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Titre : Les Petits Ballons
-Titre de travail : Les Petits Tétons[1],[2]
+Titre de travail : Les Petits Tétons,
 Paroles : Serge Gainsbourg
 Musique : Jean-Claude Vannier
 Interprète d’origine : France Gall sur le 45 tours simple Pathé-Marconi C006-12207
 Arrangements et direction musicale : Jean-Claude Vannier
 Production : Serge Gainsbourg/Jean-Claude Vannier
-Année de production : 1972[3]
-Enregistrement : studios Pathé-Marconi de Boulogne-Billancourt (Hauts-de-Seine)[1]
+Année de production : 1972
+Enregistrement : studios Pathé-Marconi de Boulogne-Billancourt (Hauts-de-Seine)
 Éditions : Sidonie (catalogue Bagatelle)/Rideau Rouge
 Parution : 23 mai 1972
 Durée : 2 min 10 s</t>
@@ -553,11 +567,13 @@
           <t>Thèmes et contexte</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1968, France Gall est en perte de vitesse. Avoir quitté les disques Philips pour rejoindre en 1969 le tout nouveau label « La Compagnie » fondé par son ami Hugues Aufray n'arrange rien, car la société discographique fait faillite peu de temps après[4],[5]. France Gall passe ensuite d'un label à un autre sans plus de succès. En 1972, elle signe chez le label Pathé-Marconi. Son agent artistique de l'époque, Bertrand de Labbey décide de contacter un auteur-compositeur qui a été bénéfique à France Gall par le passé : « J'ai appelé Gainsbourg qui a été d'une courtoisie exquise, alors que j'avais craint qu'il m'envoie balader sous prétexte que France ne vendait plus de disques depuis longtemps. Il lui a écrit deux titres, Frankenstein et Les Petits Ballons. […] Serge a dirigé les séances, infiniment respectueux des autres et j'étais émerveillé de travailler avec lui »[6]. France Gall poursuit : « Les textes étaient parfaits, mais ce n'était pas ce que j'attendais. Je n'étais pas heureuse de les enregistrer ». Gilles Verlant ajoute : « Serge persiste à la confondre avec une poupée — cette fois ni de cire ni de son, mais plutôt du genre latex »[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1968, France Gall est en perte de vitesse. Avoir quitté les disques Philips pour rejoindre en 1969 le tout nouveau label « La Compagnie » fondé par son ami Hugues Aufray n'arrange rien, car la société discographique fait faillite peu de temps après,. France Gall passe ensuite d'un label à un autre sans plus de succès. En 1972, elle signe chez le label Pathé-Marconi. Son agent artistique de l'époque, Bertrand de Labbey décide de contacter un auteur-compositeur qui a été bénéfique à France Gall par le passé : « J'ai appelé Gainsbourg qui a été d'une courtoisie exquise, alors que j'avais craint qu'il m'envoie balader sous prétexte que France ne vendait plus de disques depuis longtemps. Il lui a écrit deux titres, Frankenstein et Les Petits Ballons. […] Serge a dirigé les séances, infiniment respectueux des autres et j'étais émerveillé de travailler avec lui ». France Gall poursuit : « Les textes étaient parfaits, mais ce n'était pas ce que j'attendais. Je n'étais pas heureuse de les enregistrer ». Gilles Verlant ajoute : « Serge persiste à la confondre avec une poupée — cette fois ni de cire ni de son, mais plutôt du genre latex ».
 En effet, par la voix de France Gall, c'est une poupée gonflable qui s'exprime sans ambiguïté : « On me gonfle avec la bouche, à la taille que l'on veut, puis après le bouche-à-bouche, on fait ce que l'on veut de moi ». 
-La chanson est divisée en trois strophes avec un pont instrumental après la deuxième strophe où un « hot » slide  guitar[7] du compositeur Jean-Claude Vannier s’ingénie, si c’est possible, à retranscrire musicalement l'excitation sexuelle, qui va crescendo, déclenchée, dixit la poupée, chez : « ces types un peu louches qui m'font des pinçons », et la poupée d’ajouter que cela la « laisse comme un glaçon... », car « je n'éprouve aucune émotion, je ne frémis que si l’on touche à mes petits ballons... »  
+La chanson est divisée en trois strophes avec un pont instrumental après la deuxième strophe où un « hot » slide  guitar du compositeur Jean-Claude Vannier s’ingénie, si c’est possible, à retranscrire musicalement l'excitation sexuelle, qui va crescendo, déclenchée, dixit la poupée, chez : « ces types un peu louches qui m'font des pinçons », et la poupée d’ajouter que cela la « laisse comme un glaçon... », car « je n'éprouve aucune émotion, je ne frémis que si l’on touche à mes petits ballons... »  
 </t>
         </is>
       </c>
@@ -586,11 +602,13 @@
           <t>Accueil</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bertrand de Labbey : « Nous avons été très déçus que ça ne marche pas »[6].
-Si le titre de la face A, Frankenstein, fait quelques percées çà et là dans l’audiovisuel, et tardivement comme sur la Deuxième chaîne de l'ORTF dans le Top à Dutronc diffusé du 2 mars 1974[2], la face B et ses Petits Ballons sont ignorés, absence radio et aucun écho médiatique malgré un texte bien plus provocateur et explicite que celui des Sucettes. Il faut dire, comme le relate Lucien Rioux[8], que déjà, trois ans auparavant : « Les mœurs se sont libérées, les rapports femme-homme se sont simplifiés. […] Grâce à une chanson dure et tendre qui ne craignait pas de mettre en scène l’acte sexuel : Je t'aime… moi non plus. […] Scandale énorme. […] L'Osservatore Romano, organe officiel du Vatican, tonne. […] Une telle réprobation, une telle indignation ne peuvent que porter leurs fruits. […] Un pas a été franchi. On peut maintenant se livrer à des ébats érotiques sur vinyle ».
-Gilles Verlant : « On dirait que Serge se fourvoie et qu’il livre à France des chansons rigolotes tout juste dignes d’un show télévisé »[6]. 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bertrand de Labbey : « Nous avons été très déçus que ça ne marche pas ».
+Si le titre de la face A, Frankenstein, fait quelques percées çà et là dans l’audiovisuel, et tardivement comme sur la Deuxième chaîne de l'ORTF dans le Top à Dutronc diffusé du 2 mars 1974, la face B et ses Petits Ballons sont ignorés, absence radio et aucun écho médiatique malgré un texte bien plus provocateur et explicite que celui des Sucettes. Il faut dire, comme le relate Lucien Rioux, que déjà, trois ans auparavant : « Les mœurs se sont libérées, les rapports femme-homme se sont simplifiés. […] Grâce à une chanson dure et tendre qui ne craignait pas de mettre en scène l’acte sexuel : Je t'aime… moi non plus. […] Scandale énorme. […] L'Osservatore Romano, organe officiel du Vatican, tonne. […] Une telle réprobation, une telle indignation ne peuvent que porter leurs fruits. […] Un pas a été franchi. On peut maintenant se livrer à des ébats érotiques sur vinyle ».
+Gilles Verlant : « On dirait que Serge se fourvoie et qu’il livre à France des chansons rigolotes tout juste dignes d’un show télévisé ». 
 </t>
         </is>
       </c>
@@ -619,7 +637,9 @@
           <t>Discographie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Autres éditions :
 1976 : Cinq minutes d'amour (33 tours LP MFP/EMI 2M O46-13293)Compilation regroupant tous les titres enregistrés par France Gall de 1972 à 1973 chez Pathé-Marconi. 
